--- a/data/LFData_WB_plus.xlsx
+++ b/data/LFData_WB_plus.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seabr\Documents\Capstone\InRoomAirFilterScaleUp\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9638511-E7B8-472A-96B5-942A24FA47E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4696" yWindow="3769" windowWidth="21637" windowHeight="13586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1233,8 +1255,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Seychelles Unemployment Rate</t>
     </r>
@@ -1441,51 +1465,71 @@
     <t>ZWE</t>
   </si>
   <si>
-    <t>SUM (sanity check)</t>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.gov.im/media/1384637/isle-of-man-in-numbers-2024_compressed.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1495,73 +1539,61 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1751,24 +1783,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.85" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.75"/>
-    <col customWidth="1" min="4" max="4" width="26.5"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,13 +1819,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1802,14 +1839,14 @@
         <v>8</v>
       </c>
       <c r="E2" s="5">
-        <v>55826.0</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+        <v>55826</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1822,12 +1859,12 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8">
-        <v>9130000.0</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4">
+      <c r="E3" s="7">
+        <v>9130000</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1840,12 +1877,12 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8">
-        <v>1.6E7</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5">
+      <c r="E4" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1858,12 +1895,12 @@
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8">
-        <v>1370000.0</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6">
+      <c r="E5" s="7">
+        <v>1370000</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1877,14 +1914,14 @@
         <v>8</v>
       </c>
       <c r="E6" s="5">
-        <v>50504.0</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9" t="s">
+        <v>50504</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1897,12 +1934,12 @@
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8">
-        <v>7090000.0</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8">
+      <c r="E7" s="7">
+        <v>7090000</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1915,12 +1952,12 @@
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8">
-        <v>2.23E7</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9">
+      <c r="E8" s="7">
+        <v>22300000</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1933,12 +1970,12 @@
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8">
-        <v>1510000.0</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10">
+      <c r="E9" s="7">
+        <v>1510000</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1952,13 +1989,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="5">
-        <v>55958.0</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>55958</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1972,16 +2009,16 @@
         <v>8</v>
       </c>
       <c r="E11" s="5">
-        <v>46540.0</v>
+        <v>46540</v>
       </c>
       <c r="F11" s="3">
-        <v>-2023.0</v>
-      </c>
-      <c r="G11" s="7" t="s">
+        <v>-2023</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1994,12 +2031,12 @@
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8">
-        <v>1.49E7</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13">
+      <c r="E12" s="7">
+        <v>14900000</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2012,12 +2049,12 @@
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8">
-        <v>4770000.0</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="7">
+        <v>4770000</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -2030,12 +2067,12 @@
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8">
-        <v>5020000.0</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15">
+      <c r="E14" s="7">
+        <v>5020000</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2048,12 +2085,12 @@
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8">
-        <v>6110000.0</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="7">
+        <v>6110000</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2066,12 +2103,12 @@
       <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="8">
-        <v>5420000.0</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17">
+      <c r="E16" s="7">
+        <v>5420000</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2084,12 +2121,12 @@
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="8">
-        <v>6400000.0</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="7">
+        <v>6400000</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2102,12 +2139,12 @@
       <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="8">
-        <v>6460000.0</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19">
+      <c r="E18" s="7">
+        <v>6460000</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -2120,12 +2157,12 @@
       <c r="D19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="8">
-        <v>7.74E7</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20">
+      <c r="E19" s="7">
+        <v>77400000</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2138,12 +2175,12 @@
       <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="8">
-        <v>3120000.0</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21">
+      <c r="E20" s="7">
+        <v>3120000</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -2156,12 +2193,12 @@
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="8">
-        <v>913000.0</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22">
+      <c r="E21" s="7">
+        <v>913000</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2174,12 +2211,12 @@
       <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="8">
-        <v>237000.0</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23">
+      <c r="E22" s="7">
+        <v>237000</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2192,12 +2229,12 @@
       <c r="D23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="8">
-        <v>1360000.0</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24">
+      <c r="E23" s="7">
+        <v>1360000</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2210,12 +2247,12 @@
       <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="8">
-        <v>4820000.0</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25">
+      <c r="E24" s="7">
+        <v>4820000</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,12 +2265,12 @@
       <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="8">
-        <v>190000.0</v>
-      </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26">
+      <c r="E25" s="7">
+        <v>190000</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.4">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -2247,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="5">
-        <v>52878.0</v>
+        <v>52878</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="14.4">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -2266,12 +2303,12 @@
       <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="8">
-        <v>6860000.0</v>
-      </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28">
+      <c r="E27" s="7">
+        <v>6860000</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.4">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -2284,12 +2321,12 @@
       <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="8">
-        <v>1.07E8</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29">
+      <c r="E28" s="7">
+        <v>107000000</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.4">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -2302,12 +2339,12 @@
       <c r="D29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8">
-        <v>147000.0</v>
-      </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30">
+      <c r="E29" s="7">
+        <v>147000</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.4">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -2320,12 +2357,12 @@
       <c r="D30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="8">
-        <v>234000.0</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31">
+      <c r="E30" s="7">
+        <v>234000</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.4">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2338,12 +2375,12 @@
       <c r="D31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="8">
-        <v>406000.0</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32">
+      <c r="E31" s="7">
+        <v>406000</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.4">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -2356,12 +2393,12 @@
       <c r="D32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="8">
-        <v>1170000.0</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33">
+      <c r="E32" s="7">
+        <v>1170000</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.4">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2374,12 +2411,12 @@
       <c r="D33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="8">
-        <v>2000000.0</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34">
+      <c r="E33" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.4">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -2392,12 +2429,12 @@
       <c r="D34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="8">
-        <v>2.29E7</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35">
+      <c r="E34" s="7">
+        <v>22900000</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.4">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -2410,12 +2447,12 @@
       <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="8">
-        <v>5150000.0</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36">
+      <c r="E35" s="7">
+        <v>5150000</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.4">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -2428,12 +2465,12 @@
       <c r="D36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="8">
-        <v>82400.0</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37">
+      <c r="E36" s="7">
+        <v>82400</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.4">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -2446,12 +2483,12 @@
       <c r="D37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="8">
-        <v>1.01E7</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38">
+      <c r="E37" s="7">
+        <v>10100000</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.4">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2464,12 +2501,12 @@
       <c r="D38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="8">
-        <v>7.74E8</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39">
+      <c r="E38" s="7">
+        <v>774000000</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.4">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -2482,12 +2519,12 @@
       <c r="D39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="8">
-        <v>1.26E7</v>
-      </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40">
+      <c r="E39" s="7">
+        <v>12600000</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.4">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -2500,12 +2537,12 @@
       <c r="D40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="8">
-        <v>1.11E7</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41">
+      <c r="E40" s="7">
+        <v>11100000</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.4">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2518,12 +2555,12 @@
       <c r="D41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="8">
-        <v>3.85E7</v>
-      </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42">
+      <c r="E41" s="7">
+        <v>38500000</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.4">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -2536,12 +2573,12 @@
       <c r="D42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="8">
-        <v>2560000.0</v>
-      </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43">
+      <c r="E42" s="7">
+        <v>2560000</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.4">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -2554,12 +2591,12 @@
       <c r="D43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="8">
-        <v>2.68E7</v>
-      </c>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44">
+      <c r="E43" s="7">
+        <v>26800000</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.4">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -2572,12 +2609,12 @@
       <c r="D44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="8">
-        <v>276000.0</v>
-      </c>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45">
+      <c r="E44" s="7">
+        <v>276000</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.4">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
@@ -2590,12 +2627,12 @@
       <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="8">
-        <v>224000.0</v>
-      </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46">
+      <c r="E45" s="7">
+        <v>224000</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.4">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -2608,12 +2645,12 @@
       <c r="D46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="8">
-        <v>2360000.0</v>
-      </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47">
+      <c r="E46" s="7">
+        <v>2360000</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.4">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -2626,12 +2663,12 @@
       <c r="D47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="8">
-        <v>4860000.0</v>
-      </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48">
+      <c r="E47" s="7">
+        <v>4860000</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.4">
       <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
@@ -2645,14 +2682,14 @@
         <v>8</v>
       </c>
       <c r="E48" s="5">
-        <v>71999.0</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="9" t="s">
+        <v>71999</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="14.4">
       <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
@@ -2666,14 +2703,14 @@
         <v>8</v>
       </c>
       <c r="E49" s="5">
-        <v>60828.0</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7" t="s">
+        <v>60828</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" ht="14.4">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -2686,12 +2723,12 @@
       <c r="D50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="8">
-        <v>772000.0</v>
-      </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51">
+      <c r="E50" s="7">
+        <v>772000</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.4">
       <c r="A51" s="1" t="s">
         <v>112</v>
       </c>
@@ -2704,12 +2741,12 @@
       <c r="D51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="8">
-        <v>5540000.0</v>
-      </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52">
+      <c r="E51" s="7">
+        <v>5540000</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.4">
       <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
@@ -2722,12 +2759,12 @@
       <c r="D52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="8">
-        <v>4.38E7</v>
-      </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53">
+      <c r="E52" s="7">
+        <v>43800000</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.4">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -2740,12 +2777,12 @@
       <c r="D53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="8">
-        <v>265000.0</v>
-      </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54">
+      <c r="E53" s="7">
+        <v>265000</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.4">
       <c r="A54" s="1" t="s">
         <v>118</v>
       </c>
@@ -2759,16 +2796,16 @@
         <v>8</v>
       </c>
       <c r="E54" s="5">
-        <v>32630.0</v>
+        <v>32630</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="14.4">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
@@ -2781,12 +2818,12 @@
       <c r="D55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="8">
-        <v>3210000.0</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56">
+      <c r="E55" s="7">
+        <v>3210000</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.4">
       <c r="A56" s="1" t="s">
         <v>124</v>
       </c>
@@ -2799,12 +2836,12 @@
       <c r="D56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="8">
-        <v>5410000.0</v>
-      </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57">
+      <c r="E56" s="7">
+        <v>5410000</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.4">
       <c r="A57" s="1" t="s">
         <v>126</v>
       </c>
@@ -2817,12 +2854,12 @@
       <c r="D57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="8">
-        <v>1.33E7</v>
-      </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58">
+      <c r="E57" s="7">
+        <v>13300000</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.4">
       <c r="A58" s="1" t="s">
         <v>128</v>
       </c>
@@ -2835,12 +2872,12 @@
       <c r="D58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="8">
-        <v>8820000.0</v>
-      </c>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59">
+      <c r="E58" s="7">
+        <v>8820000</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.4">
       <c r="A59" s="1" t="s">
         <v>130</v>
       </c>
@@ -2853,12 +2890,12 @@
       <c r="D59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="8">
-        <v>3.37E7</v>
-      </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60">
+      <c r="E59" s="7">
+        <v>33700000</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.4">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -2871,12 +2908,12 @@
       <c r="D60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="8">
-        <v>1710000.0</v>
-      </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61">
+      <c r="E60" s="7">
+        <v>1710000</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.4">
       <c r="A61" s="1" t="s">
         <v>134</v>
       </c>
@@ -2889,12 +2926,12 @@
       <c r="D61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="8">
-        <v>2.44E7</v>
-      </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62">
+      <c r="E61" s="7">
+        <v>24400000</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.4">
       <c r="A62" s="1" t="s">
         <v>136</v>
       </c>
@@ -2907,12 +2944,12 @@
       <c r="D62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="8">
-        <v>756000.0</v>
-      </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63">
+      <c r="E62" s="7">
+        <v>756000</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.4">
       <c r="A63" s="1" t="s">
         <v>138</v>
       </c>
@@ -2925,12 +2962,12 @@
       <c r="D63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="8">
-        <v>5.45E7</v>
-      </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64">
+      <c r="E63" s="7">
+        <v>54500000</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.4">
       <c r="A64" s="1" t="s">
         <v>140</v>
       </c>
@@ -2943,12 +2980,12 @@
       <c r="D64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="8">
-        <v>2900000.0</v>
-      </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65">
+      <c r="E64" s="7">
+        <v>2900000</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.4">
       <c r="A65" s="1" t="s">
         <v>142</v>
       </c>
@@ -2961,12 +2998,12 @@
       <c r="D65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="8">
-        <v>388000.0</v>
-      </c>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66">
+      <c r="E65" s="7">
+        <v>388000</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.4">
       <c r="A66" s="1" t="s">
         <v>144</v>
       </c>
@@ -2979,12 +3016,12 @@
       <c r="D66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="8">
-        <v>3.17E7</v>
-      </c>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67">
+      <c r="E66" s="7">
+        <v>31700000</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.4">
       <c r="A67" s="1" t="s">
         <v>146</v>
       </c>
@@ -2998,14 +3035,14 @@
         <v>8</v>
       </c>
       <c r="E67" s="5">
-        <v>32200.0</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="7" t="s">
+        <v>32200</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" ht="14.4">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -3019,16 +3056,16 @@
         <v>8</v>
       </c>
       <c r="E68" s="5">
-        <v>14500.0</v>
+        <v>14500</v>
       </c>
       <c r="F68" s="3">
-        <v>2022.0</v>
-      </c>
-      <c r="G68" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" ht="14.4">
       <c r="A69" s="1" t="s">
         <v>152</v>
       </c>
@@ -3041,12 +3078,12 @@
       <c r="D69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="8">
-        <v>824000.0</v>
-      </c>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70">
+      <c r="E69" s="7">
+        <v>824000</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.4">
       <c r="A70" s="1" t="s">
         <v>154</v>
       </c>
@@ -3059,12 +3096,12 @@
       <c r="D70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="8">
-        <v>3.54E7</v>
-      </c>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71">
+      <c r="E70" s="7">
+        <v>35400000</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.4">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -3077,12 +3114,12 @@
       <c r="D71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="8">
-        <v>1830000.0</v>
-      </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72">
+      <c r="E71" s="7">
+        <v>1830000</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="14.4">
       <c r="A72" s="1" t="s">
         <v>158</v>
       </c>
@@ -3095,12 +3132,12 @@
       <c r="D72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="8">
-        <v>1.39E7</v>
-      </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73">
+      <c r="E72" s="7">
+        <v>13900000</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.4">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
@@ -3114,14 +3151,14 @@
         <v>8</v>
       </c>
       <c r="E73" s="5">
-        <v>27000.0</v>
-      </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="7" t="s">
+        <v>27000</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" ht="14.4">
       <c r="A74" s="1" t="s">
         <v>163</v>
       </c>
@@ -3134,12 +3171,12 @@
       <c r="D74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="8">
-        <v>4530000.0</v>
-      </c>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75">
+      <c r="E74" s="7">
+        <v>4530000</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="14.4">
       <c r="A75" s="1" t="s">
         <v>165</v>
       </c>
@@ -3152,12 +3189,12 @@
       <c r="D75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="8">
-        <v>783000.0</v>
-      </c>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76">
+      <c r="E75" s="7">
+        <v>783000</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="14.4">
       <c r="A76" s="1" t="s">
         <v>167</v>
       </c>
@@ -3170,12 +3207,12 @@
       <c r="D76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="8">
-        <v>845000.0</v>
-      </c>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77">
+      <c r="E76" s="7">
+        <v>845000</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="14.4">
       <c r="A77" s="1" t="s">
         <v>169</v>
       </c>
@@ -3188,12 +3225,12 @@
       <c r="D77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="8">
-        <v>715000.0</v>
-      </c>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78">
+      <c r="E77" s="7">
+        <v>715000</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="14.4">
       <c r="A78" s="1" t="s">
         <v>171</v>
       </c>
@@ -3206,12 +3243,12 @@
       <c r="D78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="8">
-        <v>4650000.0</v>
-      </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79">
+      <c r="E78" s="7">
+        <v>4650000</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.4">
       <c r="A79" s="1" t="s">
         <v>173</v>
       </c>
@@ -3226,16 +3263,16 @@
       </c>
       <c r="E79" s="5">
         <f>0.769*0.648*117207</f>
-        <v>58405.65458</v>
+        <v>58405.654584000004</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" ht="14.4">
       <c r="A80" s="1" t="s">
         <v>177</v>
       </c>
@@ -3249,16 +3286,16 @@
         <v>8</v>
       </c>
       <c r="E80" s="5">
-        <v>28992.0</v>
+        <v>28992</v>
       </c>
       <c r="F80" s="3">
-        <v>2022.0</v>
-      </c>
-      <c r="G80" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" ht="14.4">
       <c r="A81" s="1" t="s">
         <v>180</v>
       </c>
@@ -3271,12 +3308,12 @@
       <c r="D81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="8">
-        <v>7580000.0</v>
-      </c>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82">
+      <c r="E81" s="7">
+        <v>7580000</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="14.4">
       <c r="A82" s="1" t="s">
         <v>182</v>
       </c>
@@ -3289,12 +3326,12 @@
       <c r="D82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="8">
-        <v>77700.0</v>
-      </c>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83">
+      <c r="E82" s="7">
+        <v>77700</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" ht="14.4">
       <c r="A83" s="1" t="s">
         <v>184</v>
       </c>
@@ -3307,12 +3344,12 @@
       <c r="D83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="8">
-        <v>292000.0</v>
-      </c>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84">
+      <c r="E83" s="7">
+        <v>292000</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.4">
       <c r="A84" s="1" t="s">
         <v>186</v>
       </c>
@@ -3325,12 +3362,12 @@
       <c r="D84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="8">
-        <v>3840000.0</v>
-      </c>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85">
+      <c r="E84" s="7">
+        <v>3840000</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.4">
       <c r="A85" s="1" t="s">
         <v>188</v>
       </c>
@@ -3343,12 +3380,12 @@
       <c r="D85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="8">
-        <v>4300000.0</v>
-      </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86">
+      <c r="E85" s="7">
+        <v>4300000</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" ht="14.4">
       <c r="A86" s="1" t="s">
         <v>190</v>
       </c>
@@ -3361,12 +3398,12 @@
       <c r="D86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="8">
-        <v>1730000.0</v>
-      </c>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87">
+      <c r="E86" s="7">
+        <v>1730000</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.4">
       <c r="A87" s="1" t="s">
         <v>192</v>
       </c>
@@ -3379,12 +3416,12 @@
       <c r="D87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="8">
-        <v>5280000.0</v>
-      </c>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88">
+      <c r="E87" s="7">
+        <v>5280000</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.4">
       <c r="A88" s="1" t="s">
         <v>194</v>
       </c>
@@ -3397,12 +3434,12 @@
       <c r="D88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="8">
-        <v>4950000.0</v>
-      </c>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89">
+      <c r="E88" s="7">
+        <v>4950000</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" ht="14.4">
       <c r="A89" s="1" t="s">
         <v>196</v>
       </c>
@@ -3415,12 +3452,12 @@
       <c r="D89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="8">
-        <v>1.43E8</v>
-      </c>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90">
+      <c r="E89" s="7">
+        <v>143000000</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" ht="14.4">
       <c r="A90" s="1" t="s">
         <v>198</v>
       </c>
@@ -3433,10 +3470,14 @@
       <c r="D90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91">
+      <c r="E90" s="10">
+        <v>36555</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.4">
       <c r="A91" s="1" t="s">
         <v>200</v>
       </c>
@@ -3449,12 +3490,12 @@
       <c r="D91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="8">
-        <v>6.08E8</v>
-      </c>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92">
+      <c r="E91" s="7">
+        <v>608000000</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" ht="14.4">
       <c r="A92" s="1" t="s">
         <v>202</v>
       </c>
@@ -3467,12 +3508,12 @@
       <c r="D92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="8">
-        <v>2860000.0</v>
-      </c>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93">
+      <c r="E92" s="7">
+        <v>2860000</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" ht="14.4">
       <c r="A93" s="1" t="s">
         <v>204</v>
       </c>
@@ -3485,12 +3526,12 @@
       <c r="D93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="8">
-        <v>2.86E7</v>
-      </c>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94">
+      <c r="E93" s="7">
+        <v>28600000</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" ht="14.4">
       <c r="A94" s="1" t="s">
         <v>206</v>
       </c>
@@ -3503,12 +3544,12 @@
       <c r="D94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="8">
-        <v>1.2E7</v>
-      </c>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95">
+      <c r="E94" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" ht="14.4">
       <c r="A95" s="1" t="s">
         <v>208</v>
       </c>
@@ -3521,12 +3562,12 @@
       <c r="D95" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="8">
-        <v>248000.0</v>
-      </c>
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96">
+      <c r="E95" s="7">
+        <v>248000</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" ht="14.4">
       <c r="A96" s="1" t="s">
         <v>210</v>
       </c>
@@ -3539,12 +3580,12 @@
       <c r="D96" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="8">
-        <v>4710000.0</v>
-      </c>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97">
+      <c r="E96" s="7">
+        <v>4710000</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.4">
       <c r="A97" s="1" t="s">
         <v>212</v>
       </c>
@@ -3557,12 +3598,12 @@
       <c r="D97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="8">
-        <v>2.58E7</v>
-      </c>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98">
+      <c r="E97" s="7">
+        <v>25800000</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="14.4">
       <c r="A98" s="1" t="s">
         <v>214</v>
       </c>
@@ -3575,12 +3616,12 @@
       <c r="D98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="8">
-        <v>1570000.0</v>
-      </c>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99">
+      <c r="E98" s="7">
+        <v>1570000</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="14.4">
       <c r="A99" s="1" t="s">
         <v>216</v>
       </c>
@@ -3593,12 +3634,12 @@
       <c r="D99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="8">
-        <v>3080000.0</v>
-      </c>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100">
+      <c r="E99" s="7">
+        <v>3080000</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" ht="14.4">
       <c r="A100" s="1" t="s">
         <v>218</v>
       </c>
@@ -3611,12 +3652,12 @@
       <c r="D100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="8">
-        <v>6.94E7</v>
-      </c>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101">
+      <c r="E100" s="7">
+        <v>69400000</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="14.4">
       <c r="A101" s="1" t="s">
         <v>220</v>
       </c>
@@ -3629,12 +3670,12 @@
       <c r="D101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="8">
-        <v>1.03E7</v>
-      </c>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102">
+      <c r="E101" s="7">
+        <v>10300000</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="14.4">
       <c r="A102" s="1" t="s">
         <v>222</v>
       </c>
@@ -3647,12 +3688,12 @@
       <c r="D102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="8">
-        <v>2.38E7</v>
-      </c>
-      <c r="F102" s="6"/>
-    </row>
-    <row r="103">
+      <c r="E102" s="7">
+        <v>23800000</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="14.4">
       <c r="A103" s="1" t="s">
         <v>224</v>
       </c>
@@ -3665,12 +3706,12 @@
       <c r="D103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="8">
-        <v>3200000.0</v>
-      </c>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104">
+      <c r="E103" s="7">
+        <v>3200000</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="14.4">
       <c r="A104" s="1" t="s">
         <v>226</v>
       </c>
@@ -3683,12 +3724,12 @@
       <c r="D104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="8">
-        <v>9900000.0</v>
-      </c>
-      <c r="F104" s="6"/>
-    </row>
-    <row r="105">
+      <c r="E104" s="7">
+        <v>9900000</v>
+      </c>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="14.4">
       <c r="A105" s="1" t="s">
         <v>228</v>
       </c>
@@ -3702,14 +3743,14 @@
         <v>8</v>
       </c>
       <c r="E105" s="5">
-        <v>40794.0</v>
-      </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="7" t="s">
+        <v>40794</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" ht="14.4">
       <c r="A106" s="1" t="s">
         <v>231</v>
       </c>
@@ -3722,17 +3763,17 @@
       <c r="D106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="10">
-        <v>21848.0</v>
+      <c r="E106" s="9">
+        <v>21848</v>
       </c>
       <c r="F106" s="3">
-        <v>2016.0</v>
-      </c>
-      <c r="G106" s="7" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7" ht="14.4">
       <c r="A107" s="1" t="s">
         <v>234</v>
       </c>
@@ -3745,12 +3786,12 @@
       <c r="D107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="8">
-        <v>2.97E7</v>
-      </c>
-      <c r="F107" s="6"/>
-    </row>
-    <row r="108">
+      <c r="E107" s="7">
+        <v>29700000</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="14.4">
       <c r="A108" s="1" t="s">
         <v>236</v>
       </c>
@@ -3763,12 +3804,12 @@
       <c r="D108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="8">
-        <v>3000000.0</v>
-      </c>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109">
+      <c r="E108" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="14.4">
       <c r="A109" s="1" t="s">
         <v>238</v>
       </c>
@@ -3781,12 +3822,12 @@
       <c r="D109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="8">
-        <v>3580000.0</v>
-      </c>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110">
+      <c r="E109" s="7">
+        <v>3580000</v>
+      </c>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="14.4">
       <c r="A110" s="1" t="s">
         <v>240</v>
       </c>
@@ -3800,16 +3841,16 @@
         <v>8</v>
       </c>
       <c r="E110" s="5">
-        <v>1940000.0</v>
+        <v>1940000</v>
       </c>
       <c r="F110" s="3">
-        <v>2023.0</v>
-      </c>
-      <c r="G110" s="7" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" ht="14.4">
       <c r="A111" s="1" t="s">
         <v>243</v>
       </c>
@@ -3822,12 +3863,12 @@
       <c r="D111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="8">
-        <v>2610000.0</v>
-      </c>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112">
+      <c r="E111" s="7">
+        <v>2610000</v>
+      </c>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" ht="14.4">
       <c r="A112" s="1" t="s">
         <v>245</v>
       </c>
@@ -3840,12 +3881,12 @@
       <c r="D112" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="8">
-        <v>2580000.0</v>
-      </c>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113">
+      <c r="E112" s="7">
+        <v>2580000</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="14.4">
       <c r="A113" s="1" t="s">
         <v>247</v>
       </c>
@@ -3858,12 +3899,12 @@
       <c r="D113" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E113" s="8">
-        <v>102000.0</v>
-      </c>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114">
+      <c r="E113" s="7">
+        <v>102000</v>
+      </c>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="14.4">
       <c r="A114" s="1" t="s">
         <v>249</v>
       </c>
@@ -3876,17 +3917,17 @@
       <c r="D114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="11">
-        <v>20786.0</v>
+      <c r="E114" s="10">
+        <v>20786</v>
       </c>
       <c r="F114" s="3">
-        <v>2023.0</v>
-      </c>
-      <c r="G114" s="12" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G114" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" ht="14.4">
       <c r="A115" s="1" t="s">
         <v>252</v>
       </c>
@@ -3899,12 +3940,12 @@
       <c r="D115" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="8">
-        <v>8500000.0</v>
-      </c>
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116">
+      <c r="E115" s="7">
+        <v>8500000</v>
+      </c>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" ht="14.4">
       <c r="A116" s="1" t="s">
         <v>254</v>
       </c>
@@ -3917,12 +3958,12 @@
       <c r="D116" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="8">
-        <v>884000.0</v>
-      </c>
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117">
+      <c r="E116" s="7">
+        <v>884000</v>
+      </c>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" ht="14.4">
       <c r="A117" s="1" t="s">
         <v>256</v>
       </c>
@@ -3935,12 +3976,12 @@
       <c r="D117" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="8">
-        <v>1550000.0</v>
-      </c>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118">
+      <c r="E117" s="7">
+        <v>1550000</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" ht="14.4">
       <c r="A118" s="1" t="s">
         <v>258</v>
       </c>
@@ -3953,12 +3994,12 @@
       <c r="D118" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="8">
-        <v>350000.0</v>
-      </c>
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119">
+      <c r="E118" s="7">
+        <v>350000</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" ht="14.4">
       <c r="A119" s="1" t="s">
         <v>260</v>
       </c>
@@ -3971,12 +4012,12 @@
       <c r="D119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="8">
-        <v>955000.0</v>
-      </c>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120">
+      <c r="E119" s="7">
+        <v>955000</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" ht="14.4">
       <c r="A120" s="1" t="s">
         <v>262</v>
       </c>
@@ -3989,12 +4030,12 @@
       <c r="D120" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="8">
-        <v>382000.0</v>
-      </c>
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121">
+      <c r="E120" s="7">
+        <v>382000</v>
+      </c>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" ht="14.4">
       <c r="A121" s="1" t="s">
         <v>264</v>
       </c>
@@ -4007,10 +4048,10 @@
       <c r="D121" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-    </row>
-    <row r="122">
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" ht="14.4">
       <c r="A122" s="1" t="s">
         <v>266</v>
       </c>
@@ -4023,12 +4064,12 @@
       <c r="D122" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="8">
-        <v>1.25E7</v>
-      </c>
-      <c r="F122" s="6"/>
-    </row>
-    <row r="123">
+      <c r="E122" s="7">
+        <v>12500000</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" ht="14.4">
       <c r="A123" s="1" t="s">
         <v>268</v>
       </c>
@@ -4041,15 +4082,15 @@
       <c r="D123" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="11">
-        <v>78364.0</v>
-      </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="9" t="s">
+      <c r="E123" s="10">
+        <v>78364</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" ht="14.4">
       <c r="A124" s="1" t="s">
         <v>271</v>
       </c>
@@ -4062,12 +4103,12 @@
       <c r="D124" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="8">
-        <v>1360000.0</v>
-      </c>
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125">
+      <c r="E124" s="7">
+        <v>1360000</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" ht="14.4">
       <c r="A125" s="1" t="s">
         <v>273</v>
       </c>
@@ -4080,12 +4121,12 @@
       <c r="D125" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="8">
-        <v>1.65E7</v>
-      </c>
-      <c r="F125" s="6"/>
-    </row>
-    <row r="126">
+      <c r="E125" s="7">
+        <v>16500000</v>
+      </c>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" ht="14.4">
       <c r="A126" s="1" t="s">
         <v>275</v>
       </c>
@@ -4098,12 +4139,12 @@
       <c r="D126" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E126" s="8">
-        <v>270000.0</v>
-      </c>
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127">
+      <c r="E126" s="7">
+        <v>270000</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" ht="14.4">
       <c r="A127" s="1" t="s">
         <v>277</v>
       </c>
@@ -4116,12 +4157,12 @@
       <c r="D127" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="8">
-        <v>6.1E7</v>
-      </c>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128">
+      <c r="E127" s="7">
+        <v>61000000</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" ht="14.4">
       <c r="A128" s="1" t="s">
         <v>279</v>
       </c>
@@ -4134,18 +4175,18 @@
       <c r="D128" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E128" s="13">
+      <c r="E128" s="10">
         <f>28000*0.495</f>
         <v>13860</v>
       </c>
       <c r="F128" s="3">
-        <v>2021.0</v>
-      </c>
-      <c r="G128" s="9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" ht="14.4">
       <c r="A129" s="1" t="s">
         <v>282</v>
       </c>
@@ -4158,12 +4199,12 @@
       <c r="D129" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E129" s="8">
-        <v>779000.0</v>
-      </c>
-      <c r="F129" s="6"/>
-    </row>
-    <row r="130">
+      <c r="E129" s="7">
+        <v>779000</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" ht="14.4">
       <c r="A130" s="1" t="s">
         <v>284</v>
       </c>
@@ -4176,12 +4217,12 @@
       <c r="D130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="8">
-        <v>9130000.0</v>
-      </c>
-      <c r="F130" s="6"/>
-    </row>
-    <row r="131">
+      <c r="E130" s="7">
+        <v>9130000</v>
+      </c>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" ht="14.4">
       <c r="A131" s="1" t="s">
         <v>286</v>
       </c>
@@ -4194,12 +4235,12 @@
       <c r="D131" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="8">
-        <v>318000.0</v>
-      </c>
-      <c r="F131" s="6"/>
-    </row>
-    <row r="132">
+      <c r="E131" s="7">
+        <v>318000</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" ht="14.4">
       <c r="A132" s="1" t="s">
         <v>288</v>
       </c>
@@ -4212,12 +4253,12 @@
       <c r="D132" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E132" s="8">
-        <v>2.27E7</v>
-      </c>
-      <c r="F132" s="6"/>
-    </row>
-    <row r="133">
+      <c r="E132" s="7">
+        <v>22700000</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" ht="14.4">
       <c r="A133" s="1" t="s">
         <v>290</v>
       </c>
@@ -4230,12 +4271,12 @@
       <c r="D133" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E133" s="8">
-        <v>245000.0</v>
-      </c>
-      <c r="F133" s="6"/>
-    </row>
-    <row r="134">
+      <c r="E133" s="7">
+        <v>245000</v>
+      </c>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" ht="14.4">
       <c r="A134" s="1" t="s">
         <v>292</v>
       </c>
@@ -4248,12 +4289,12 @@
       <c r="D134" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E134" s="8">
-        <v>1450000.0</v>
-      </c>
-      <c r="F134" s="6"/>
-    </row>
-    <row r="135">
+      <c r="E134" s="7">
+        <v>1450000</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" ht="14.4">
       <c r="A135" s="1" t="s">
         <v>294</v>
       </c>
@@ -4267,16 +4308,16 @@
         <v>8</v>
       </c>
       <c r="E135" s="5">
-        <v>23002.0</v>
+        <v>23002</v>
       </c>
       <c r="F135" s="3">
-        <v>2023.0</v>
-      </c>
-      <c r="G135" s="7" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" ht="14.4">
       <c r="A136" s="1" t="s">
         <v>297</v>
       </c>
@@ -4289,12 +4330,12 @@
       <c r="D136" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E136" s="8">
-        <v>1.52E7</v>
-      </c>
-      <c r="F136" s="6"/>
-    </row>
-    <row r="137">
+      <c r="E136" s="7">
+        <v>15200000</v>
+      </c>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" ht="14.4">
       <c r="A137" s="1" t="s">
         <v>299</v>
       </c>
@@ -4307,12 +4348,12 @@
       <c r="D137" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E137" s="8">
-        <v>1210000.0</v>
-      </c>
-      <c r="F137" s="6"/>
-    </row>
-    <row r="138">
+      <c r="E137" s="7">
+        <v>1210000</v>
+      </c>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" ht="14.4">
       <c r="A138" s="1" t="s">
         <v>301</v>
       </c>
@@ -4325,12 +4366,12 @@
       <c r="D138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="8">
-        <v>595000.0</v>
-      </c>
-      <c r="F138" s="6"/>
-    </row>
-    <row r="139">
+      <c r="E138" s="7">
+        <v>595000</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" ht="14.4">
       <c r="A139" s="1" t="s">
         <v>303</v>
       </c>
@@ -4343,12 +4384,12 @@
       <c r="D139" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E139" s="8">
-        <v>8600000.0</v>
-      </c>
-      <c r="F139" s="6"/>
-    </row>
-    <row r="140">
+      <c r="E139" s="7">
+        <v>8600000</v>
+      </c>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" ht="14.4">
       <c r="A140" s="1" t="s">
         <v>305</v>
       </c>
@@ -4361,12 +4402,12 @@
       <c r="D140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="8">
-        <v>1.83E7</v>
-      </c>
-      <c r="F140" s="6"/>
-    </row>
-    <row r="141">
+      <c r="E140" s="7">
+        <v>18300000</v>
+      </c>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" ht="14.4">
       <c r="A141" s="1" t="s">
         <v>307</v>
       </c>
@@ -4379,12 +4420,12 @@
       <c r="D141" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="8">
-        <v>1130000.0</v>
-      </c>
-      <c r="F141" s="6"/>
-    </row>
-    <row r="142">
+      <c r="E141" s="7">
+        <v>1130000</v>
+      </c>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" ht="14.4">
       <c r="A142" s="1" t="s">
         <v>309</v>
       </c>
@@ -4397,12 +4438,12 @@
       <c r="D142" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E142" s="8">
-        <v>131000.0</v>
-      </c>
-      <c r="F142" s="6"/>
-    </row>
-    <row r="143">
+      <c r="E142" s="7">
+        <v>131000</v>
+      </c>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" ht="14.4">
       <c r="A143" s="1" t="s">
         <v>311</v>
       </c>
@@ -4415,12 +4456,12 @@
       <c r="D143" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E143" s="8">
-        <v>1.05E7</v>
-      </c>
-      <c r="F143" s="6"/>
-    </row>
-    <row r="144">
+      <c r="E143" s="7">
+        <v>10500000</v>
+      </c>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" ht="14.4">
       <c r="A144" s="1" t="s">
         <v>313</v>
       </c>
@@ -4433,12 +4474,12 @@
       <c r="D144" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="8">
-        <v>1.13E8</v>
-      </c>
-      <c r="F144" s="6"/>
-    </row>
-    <row r="145">
+      <c r="E144" s="7">
+        <v>113000000</v>
+      </c>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" ht="14.4">
       <c r="A145" s="1" t="s">
         <v>315</v>
       </c>
@@ -4451,12 +4492,12 @@
       <c r="D145" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E145" s="8">
-        <v>3220000.0</v>
-      </c>
-      <c r="F145" s="6"/>
-    </row>
-    <row r="146">
+      <c r="E145" s="7">
+        <v>3220000</v>
+      </c>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" ht="14.4">
       <c r="A146" s="1" t="s">
         <v>317</v>
       </c>
@@ -4469,12 +4510,12 @@
       <c r="D146" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E146" s="8">
-        <v>1.03E7</v>
-      </c>
-      <c r="F146" s="6"/>
-    </row>
-    <row r="147">
+      <c r="E146" s="7">
+        <v>10300000</v>
+      </c>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" ht="14.4">
       <c r="A147" s="1" t="s">
         <v>319</v>
       </c>
@@ -4487,12 +4528,12 @@
       <c r="D147" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="8">
-        <v>3040000.0</v>
-      </c>
-      <c r="F147" s="6"/>
-    </row>
-    <row r="148">
+      <c r="E147" s="7">
+        <v>3040000</v>
+      </c>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" ht="14.4">
       <c r="A148" s="1" t="s">
         <v>321</v>
       </c>
@@ -4505,12 +4546,12 @@
       <c r="D148" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E148" s="8">
-        <v>8440000.0</v>
-      </c>
-      <c r="F148" s="6"/>
-    </row>
-    <row r="149">
+      <c r="E148" s="7">
+        <v>8440000</v>
+      </c>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" ht="14.4">
       <c r="A149" s="1" t="s">
         <v>323</v>
       </c>
@@ -4524,14 +4565,14 @@
         <v>8</v>
       </c>
       <c r="E149" s="5">
-        <v>8000.0</v>
-      </c>
-      <c r="F149" s="6"/>
-      <c r="G149" s="9" t="s">
+        <v>8000</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" ht="14.4">
       <c r="A150" s="1" t="s">
         <v>326</v>
       </c>
@@ -4544,12 +4585,12 @@
       <c r="D150" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E150" s="8">
-        <v>3120000.0</v>
-      </c>
-      <c r="F150" s="6"/>
-    </row>
-    <row r="151">
+      <c r="E150" s="7">
+        <v>3120000</v>
+      </c>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" ht="14.4">
       <c r="A151" s="1" t="s">
         <v>328</v>
       </c>
@@ -4562,12 +4603,12 @@
       <c r="D151" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E151" s="8">
-        <v>2700000.0</v>
-      </c>
-      <c r="F151" s="6"/>
-    </row>
-    <row r="152">
+      <c r="E151" s="7">
+        <v>2700000</v>
+      </c>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" ht="14.4">
       <c r="A152" s="1" t="s">
         <v>330</v>
       </c>
@@ -4580,12 +4621,12 @@
       <c r="D152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E152" s="8">
-        <v>8.36E7</v>
-      </c>
-      <c r="F152" s="6"/>
-    </row>
-    <row r="153">
+      <c r="E152" s="7">
+        <v>83600000</v>
+      </c>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" ht="14.4">
       <c r="A153" s="1" t="s">
         <v>332</v>
       </c>
@@ -4598,12 +4639,12 @@
       <c r="D153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E153" s="8">
-        <v>2210000.0</v>
-      </c>
-      <c r="F153" s="6"/>
-    </row>
-    <row r="154">
+      <c r="E153" s="7">
+        <v>2210000</v>
+      </c>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" ht="14.4">
       <c r="A154" s="1" t="s">
         <v>334</v>
       </c>
@@ -4616,12 +4657,12 @@
       <c r="D154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="8">
-        <v>1.89E7</v>
-      </c>
-      <c r="F154" s="6"/>
-    </row>
-    <row r="155">
+      <c r="E154" s="7">
+        <v>18900000</v>
+      </c>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" ht="14.4">
       <c r="A155" s="1" t="s">
         <v>336</v>
       </c>
@@ -4634,12 +4675,12 @@
       <c r="D155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E155" s="8">
-        <v>5.1E7</v>
-      </c>
-      <c r="F155" s="6"/>
-    </row>
-    <row r="156">
+      <c r="E155" s="7">
+        <v>51000000</v>
+      </c>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" ht="14.4">
       <c r="A156" s="1" t="s">
         <v>338</v>
       </c>
@@ -4653,14 +4694,14 @@
         <v>8</v>
       </c>
       <c r="E156" s="5">
-        <v>8000.0</v>
-      </c>
-      <c r="F156" s="6"/>
-      <c r="G156" s="7" t="s">
+        <v>8000</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" ht="14.4">
       <c r="A157" s="1" t="s">
         <v>341</v>
       </c>
@@ -4673,12 +4714,12 @@
       <c r="D157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="8">
-        <v>3660000.0</v>
-      </c>
-      <c r="F157" s="6"/>
-    </row>
-    <row r="158">
+      <c r="E157" s="7">
+        <v>3660000</v>
+      </c>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" ht="14.4">
       <c r="A158" s="1" t="s">
         <v>343</v>
       </c>
@@ -4691,12 +4732,12 @@
       <c r="D158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E158" s="8">
-        <v>1.82E7</v>
-      </c>
-      <c r="F158" s="6"/>
-    </row>
-    <row r="159">
+      <c r="E158" s="7">
+        <v>18200000</v>
+      </c>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" ht="14.4">
       <c r="A159" s="1" t="s">
         <v>345</v>
       </c>
@@ -4709,12 +4750,12 @@
       <c r="D159" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E159" s="8">
-        <v>1150000.0</v>
-      </c>
-      <c r="F159" s="6"/>
-    </row>
-    <row r="160">
+      <c r="E159" s="7">
+        <v>1150000</v>
+      </c>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" ht="14.4">
       <c r="A160" s="1" t="s">
         <v>347</v>
       </c>
@@ -4727,12 +4768,12 @@
       <c r="D160" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="8">
-        <v>1.76E7</v>
-      </c>
-      <c r="F160" s="6"/>
-    </row>
-    <row r="161">
+      <c r="E160" s="7">
+        <v>17600000</v>
+      </c>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" ht="14.4">
       <c r="A161" s="1" t="s">
         <v>349</v>
       </c>
@@ -4745,12 +4786,12 @@
       <c r="D161" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="8">
-        <v>5460000.0</v>
-      </c>
-      <c r="F161" s="6"/>
-    </row>
-    <row r="162">
+      <c r="E161" s="7">
+        <v>5460000</v>
+      </c>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" ht="14.4">
       <c r="A162" s="1" t="s">
         <v>351</v>
       </c>
@@ -4763,12 +4804,12 @@
       <c r="D162" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E162" s="8">
-        <v>3500000.0</v>
-      </c>
-      <c r="F162" s="6"/>
-    </row>
-    <row r="163">
+      <c r="E162" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" ht="14.4">
       <c r="A163" s="1" t="s">
         <v>353</v>
       </c>
@@ -4781,10 +4822,10 @@
       <c r="D163" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-    </row>
-    <row r="164">
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" ht="14.4">
       <c r="A164" s="1" t="s">
         <v>355</v>
       </c>
@@ -4797,12 +4838,12 @@
       <c r="D164" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="8">
-        <v>119000.0</v>
-      </c>
-      <c r="F164" s="6"/>
-    </row>
-    <row r="165">
+      <c r="E164" s="7">
+        <v>119000</v>
+      </c>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" ht="14.4">
       <c r="A165" s="1" t="s">
         <v>357</v>
       </c>
@@ -4815,12 +4856,12 @@
       <c r="D165" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E165" s="8">
-        <v>2120000.0</v>
-      </c>
-      <c r="F165" s="6"/>
-    </row>
-    <row r="166">
+      <c r="E165" s="7">
+        <v>2120000</v>
+      </c>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" ht="14.4">
       <c r="A166" s="1" t="s">
         <v>359</v>
       </c>
@@ -4833,12 +4874,12 @@
       <c r="D166" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E166" s="8">
-        <v>8260000.0</v>
-      </c>
-      <c r="F166" s="6"/>
-    </row>
-    <row r="167">
+      <c r="E166" s="7">
+        <v>8260000</v>
+      </c>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" ht="14.4">
       <c r="A167" s="1" t="s">
         <v>361</v>
       </c>
@@ -4851,12 +4892,12 @@
       <c r="D167" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E167" s="8">
-        <v>7.25E7</v>
-      </c>
-      <c r="F167" s="6"/>
-    </row>
-    <row r="168">
+      <c r="E167" s="7">
+        <v>72500000</v>
+      </c>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" ht="14.4">
       <c r="A168" s="1" t="s">
         <v>363</v>
       </c>
@@ -4869,12 +4910,12 @@
       <c r="D168" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="8">
-        <v>5670000.0</v>
-      </c>
-      <c r="F168" s="6"/>
-    </row>
-    <row r="169">
+      <c r="E168" s="7">
+        <v>5670000</v>
+      </c>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" ht="14.4">
       <c r="A169" s="1" t="s">
         <v>365</v>
       </c>
@@ -4887,12 +4928,12 @@
       <c r="D169" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="8">
-        <v>1.72E7</v>
-      </c>
-      <c r="F169" s="6"/>
-    </row>
-    <row r="170">
+      <c r="E169" s="7">
+        <v>17200000</v>
+      </c>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" ht="14.4">
       <c r="A170" s="1" t="s">
         <v>367</v>
       </c>
@@ -4906,14 +4947,14 @@
         <v>8</v>
       </c>
       <c r="E170" s="5">
-        <v>1.306E7</v>
-      </c>
-      <c r="F170" s="6"/>
-      <c r="G170" s="7" t="s">
+        <v>13060000</v>
+      </c>
+      <c r="F170" s="1"/>
+      <c r="G170" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" ht="14.4">
       <c r="A171" s="1" t="s">
         <v>370</v>
       </c>
@@ -4926,12 +4967,12 @@
       <c r="D171" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="8">
-        <v>5760000.0</v>
-      </c>
-      <c r="F171" s="6"/>
-    </row>
-    <row r="172">
+      <c r="E171" s="7">
+        <v>5760000</v>
+      </c>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" ht="14.4">
       <c r="A172" s="1" t="s">
         <v>372</v>
       </c>
@@ -4944,12 +4985,12 @@
       <c r="D172" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E172" s="8">
-        <v>3720000.0</v>
-      </c>
-      <c r="F172" s="6"/>
-    </row>
-    <row r="173">
+      <c r="E172" s="7">
+        <v>3720000</v>
+      </c>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" ht="14.4">
       <c r="A173" s="1" t="s">
         <v>374</v>
       </c>
@@ -4962,12 +5003,12 @@
       <c r="D173" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E173" s="8">
-        <v>436000.0</v>
-      </c>
-      <c r="F173" s="6"/>
-    </row>
-    <row r="174">
+      <c r="E173" s="7">
+        <v>436000</v>
+      </c>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" ht="14.4">
       <c r="A174" s="1" t="s">
         <v>376</v>
       </c>
@@ -4980,12 +5021,12 @@
       <c r="D174" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E174" s="8">
-        <v>2860000.0</v>
-      </c>
-      <c r="F174" s="6"/>
-    </row>
-    <row r="175">
+      <c r="E174" s="7">
+        <v>2860000</v>
+      </c>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" ht="14.4">
       <c r="A175" s="1" t="s">
         <v>378</v>
       </c>
@@ -4998,12 +5039,12 @@
       <c r="D175" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E175" s="8">
-        <v>2890000.0</v>
-      </c>
-      <c r="F175" s="6"/>
-    </row>
-    <row r="176">
+      <c r="E175" s="7">
+        <v>2890000</v>
+      </c>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" ht="14.4">
       <c r="A176" s="1" t="s">
         <v>380</v>
       </c>
@@ -5017,13 +5058,13 @@
         <v>8</v>
       </c>
       <c r="E176" s="5">
-        <v>15554.0</v>
-      </c>
-      <c r="G176" s="7" t="s">
+        <v>15554</v>
+      </c>
+      <c r="G176" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" ht="14.4">
       <c r="A177" s="1" t="s">
         <v>383</v>
       </c>
@@ -5036,12 +5077,12 @@
       <c r="D177" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E177" s="8">
-        <v>3440000.0</v>
-      </c>
-      <c r="F177" s="6"/>
-    </row>
-    <row r="178">
+      <c r="E177" s="7">
+        <v>3440000</v>
+      </c>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" ht="14.4">
       <c r="A178" s="1" t="s">
         <v>385</v>
       </c>
@@ -5054,12 +5095,12 @@
       <c r="D178" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E178" s="8">
-        <v>3230000.0</v>
-      </c>
-      <c r="F178" s="6"/>
-    </row>
-    <row r="179">
+      <c r="E178" s="7">
+        <v>3230000</v>
+      </c>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" ht="14.4">
       <c r="A179" s="1" t="s">
         <v>387</v>
       </c>
@@ -5073,16 +5114,16 @@
         <v>8</v>
       </c>
       <c r="E179" s="5">
-        <v>5303000.0</v>
+        <v>5303000</v>
       </c>
       <c r="F179" s="3">
-        <v>-2023.0</v>
-      </c>
-      <c r="G179" s="7" t="s">
+        <v>-2023</v>
+      </c>
+      <c r="G179" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7" ht="14.4">
       <c r="A180" s="1" t="s">
         <v>390</v>
       </c>
@@ -5095,12 +5136,12 @@
       <c r="D180" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E180" s="8">
-        <v>34500.0</v>
-      </c>
-      <c r="F180" s="6"/>
-    </row>
-    <row r="181">
+      <c r="E180" s="7">
+        <v>34500</v>
+      </c>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" ht="14.4">
       <c r="A181" s="1" t="s">
         <v>392</v>
       </c>
@@ -5113,12 +5154,12 @@
       <c r="D181" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E181" s="8">
-        <v>255000.0</v>
-      </c>
-      <c r="F181" s="6"/>
-    </row>
-    <row r="182">
+      <c r="E181" s="7">
+        <v>255000</v>
+      </c>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" ht="14.4">
       <c r="A182" s="1" t="s">
         <v>394</v>
       </c>
@@ -5131,12 +5172,12 @@
       <c r="D182" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E182" s="8">
-        <v>2780000.0</v>
-      </c>
-      <c r="F182" s="6"/>
-    </row>
-    <row r="183">
+      <c r="E182" s="7">
+        <v>2780000</v>
+      </c>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" ht="14.4">
       <c r="A183" s="1" t="s">
         <v>396</v>
       </c>
@@ -5149,12 +5190,12 @@
       <c r="D183" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E183" s="8">
-        <v>1060000.0</v>
-      </c>
-      <c r="F183" s="6"/>
-    </row>
-    <row r="184">
+      <c r="E183" s="7">
+        <v>1060000</v>
+      </c>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" ht="14.4">
       <c r="A184" s="1" t="s">
         <v>398</v>
       </c>
@@ -5167,12 +5208,12 @@
       <c r="D184" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E184" s="8">
-        <v>5700000.0</v>
-      </c>
-      <c r="F184" s="6"/>
-    </row>
-    <row r="185">
+      <c r="E184" s="7">
+        <v>5700000</v>
+      </c>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" ht="14.4">
       <c r="A185" s="1" t="s">
         <v>400</v>
       </c>
@@ -5185,12 +5226,12 @@
       <c r="D185" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E185" s="8">
-        <v>391000.0</v>
-      </c>
-      <c r="F185" s="6"/>
-    </row>
-    <row r="186">
+      <c r="E185" s="7">
+        <v>391000</v>
+      </c>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" ht="14.4">
       <c r="A186" s="1" t="s">
         <v>402</v>
       </c>
@@ -5203,10 +5244,12 @@
       <c r="D186" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-    </row>
-    <row r="187">
+      <c r="E186" s="13">
+        <v>23200</v>
+      </c>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" ht="14.4">
       <c r="A187" s="1" t="s">
         <v>404</v>
       </c>
@@ -5220,14 +5263,14 @@
         <v>8</v>
       </c>
       <c r="E187" s="5">
-        <v>100000.0</v>
-      </c>
-      <c r="F187" s="6"/>
-      <c r="G187" s="7" t="s">
+        <v>100000</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="6" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" ht="14.4">
       <c r="A188" s="1" t="s">
         <v>407</v>
       </c>
@@ -5240,12 +5283,12 @@
       <c r="D188" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E188" s="8">
-        <v>6620000.0</v>
-      </c>
-      <c r="F188" s="6"/>
-    </row>
-    <row r="189">
+      <c r="E188" s="7">
+        <v>6620000</v>
+      </c>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" ht="14.4">
       <c r="A189" s="3" t="s">
         <v>409</v>
       </c>
@@ -5258,13 +5301,13 @@
       <c r="D189" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="7" t="s">
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7" ht="14.4">
       <c r="A190" s="1" t="s">
         <v>412</v>
       </c>
@@ -5277,12 +5320,12 @@
       <c r="D190" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E190" s="8">
-        <v>6600000.0</v>
-      </c>
-      <c r="F190" s="6"/>
-    </row>
-    <row r="191">
+      <c r="E190" s="7">
+        <v>6600000</v>
+      </c>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" ht="14.4">
       <c r="A191" s="1" t="s">
         <v>414</v>
       </c>
@@ -5295,12 +5338,12 @@
       <c r="D191" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E191" s="8">
-        <v>3340000.0</v>
-      </c>
-      <c r="F191" s="6"/>
-    </row>
-    <row r="192">
+      <c r="E191" s="7">
+        <v>3340000</v>
+      </c>
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" ht="14.4">
       <c r="A192" s="1" t="s">
         <v>416</v>
       </c>
@@ -5313,12 +5356,12 @@
       <c r="D192" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E192" s="8">
-        <v>4.06E7</v>
-      </c>
-      <c r="F192" s="6"/>
-    </row>
-    <row r="193">
+      <c r="E192" s="7">
+        <v>40600000</v>
+      </c>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" ht="14.4">
       <c r="A193" s="1" t="s">
         <v>418</v>
       </c>
@@ -5331,12 +5374,12 @@
       <c r="D193" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E193" s="8">
-        <v>2780000.0</v>
-      </c>
-      <c r="F193" s="6"/>
-    </row>
-    <row r="194">
+      <c r="E193" s="7">
+        <v>2780000</v>
+      </c>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" ht="14.4">
       <c r="A194" s="1" t="s">
         <v>420</v>
       </c>
@@ -5349,12 +5392,12 @@
       <c r="D194" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E194" s="8">
-        <v>2440000.0</v>
-      </c>
-      <c r="F194" s="6"/>
-    </row>
-    <row r="195">
+      <c r="E194" s="7">
+        <v>2440000</v>
+      </c>
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" ht="14.4">
       <c r="A195" s="1" t="s">
         <v>422</v>
       </c>
@@ -5367,12 +5410,12 @@
       <c r="D195" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E195" s="8">
-        <v>616000.0</v>
-      </c>
-      <c r="F195" s="6"/>
-    </row>
-    <row r="196">
+      <c r="E195" s="7">
+        <v>616000</v>
+      </c>
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" ht="14.4">
       <c r="A196" s="1" t="s">
         <v>424</v>
       </c>
@@ -5385,12 +5428,12 @@
       <c r="D196" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E196" s="8">
-        <v>34800.0</v>
-      </c>
-      <c r="F196" s="6"/>
-    </row>
-    <row r="197">
+      <c r="E196" s="7">
+        <v>34800</v>
+      </c>
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" ht="14.4">
       <c r="A197" s="1" t="s">
         <v>426</v>
       </c>
@@ -5403,12 +5446,12 @@
       <c r="D197" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E197" s="8">
-        <v>650000.0</v>
-      </c>
-      <c r="F197" s="6"/>
-    </row>
-    <row r="198">
+      <c r="E197" s="7">
+        <v>650000</v>
+      </c>
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" ht="14.4">
       <c r="A198" s="1" t="s">
         <v>428</v>
       </c>
@@ -5421,12 +5464,12 @@
       <c r="D198" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E198" s="8">
-        <v>4250000.0</v>
-      </c>
-      <c r="F198" s="6"/>
-    </row>
-    <row r="199">
+      <c r="E198" s="7">
+        <v>4250000</v>
+      </c>
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" ht="14.4">
       <c r="A199" s="1" t="s">
         <v>430</v>
       </c>
@@ -5439,12 +5482,12 @@
       <c r="D199" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E199" s="8">
-        <v>3.61E7</v>
-      </c>
-      <c r="F199" s="6"/>
-    </row>
-    <row r="200">
+      <c r="E199" s="7">
+        <v>36100000</v>
+      </c>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" ht="14.4">
       <c r="A200" s="1" t="s">
         <v>432</v>
       </c>
@@ -5458,14 +5501,14 @@
         <v>8</v>
       </c>
       <c r="E200" s="5">
-        <v>9646.0</v>
-      </c>
-      <c r="F200" s="6"/>
-      <c r="G200" s="7" t="s">
+        <v>9646</v>
+      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" ht="14.4">
       <c r="A201" s="1" t="s">
         <v>435</v>
       </c>
@@ -5478,12 +5521,12 @@
       <c r="D201" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E201" s="8">
-        <v>3.3E7</v>
-      </c>
-      <c r="F201" s="6"/>
-    </row>
-    <row r="202">
+      <c r="E201" s="7">
+        <v>33000000</v>
+      </c>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" ht="14.4">
       <c r="A202" s="1" t="s">
         <v>437</v>
       </c>
@@ -5496,12 +5539,12 @@
       <c r="D202" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E202" s="8">
-        <v>2.28E7</v>
-      </c>
-      <c r="F202" s="6"/>
-    </row>
-    <row r="203">
+      <c r="E202" s="7">
+        <v>22800000</v>
+      </c>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" ht="14.4">
       <c r="A203" s="1" t="s">
         <v>439</v>
       </c>
@@ -5514,16 +5557,16 @@
       <c r="D203" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E203" s="13">
+      <c r="E203" s="10">
         <f>37860000*0.6614</f>
         <v>25040604</v>
       </c>
-      <c r="F203" s="6"/>
-      <c r="G203" s="7" t="s">
+      <c r="F203" s="1"/>
+      <c r="G203" s="6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" ht="14.4">
       <c r="A204" s="1" t="s">
         <v>442</v>
       </c>
@@ -5536,12 +5579,12 @@
       <c r="D204" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E204" s="8">
-        <v>1770000.0</v>
-      </c>
-      <c r="F204" s="6"/>
-    </row>
-    <row r="205">
+      <c r="E204" s="7">
+        <v>1770000</v>
+      </c>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" ht="14.4">
       <c r="A205" s="1" t="s">
         <v>444</v>
       </c>
@@ -5554,12 +5597,12 @@
       <c r="D205" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E205" s="8">
-        <v>1.74E8</v>
-      </c>
-      <c r="F205" s="6"/>
-    </row>
-    <row r="206">
+      <c r="E205" s="7">
+        <v>174000000</v>
+      </c>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" ht="14.4">
       <c r="A206" s="1" t="s">
         <v>446</v>
       </c>
@@ -5572,12 +5615,12 @@
       <c r="D206" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E206" s="8">
-        <v>1.4E7</v>
-      </c>
-      <c r="F206" s="6"/>
-    </row>
-    <row r="207">
+      <c r="E206" s="7">
+        <v>14000000</v>
+      </c>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" ht="14.4">
       <c r="A207" s="1" t="s">
         <v>448</v>
       </c>
@@ -5590,12 +5633,12 @@
       <c r="D207" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E207" s="8">
-        <v>52100.0</v>
-      </c>
-      <c r="F207" s="6"/>
-    </row>
-    <row r="208">
+      <c r="E207" s="7">
+        <v>52100</v>
+      </c>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:7" ht="14.4">
       <c r="A208" s="1" t="s">
         <v>450</v>
       </c>
@@ -5608,12 +5651,12 @@
       <c r="D208" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E208" s="8">
-        <v>1.11E7</v>
-      </c>
-      <c r="F208" s="6"/>
-    </row>
-    <row r="209">
+      <c r="E208" s="7">
+        <v>11100000</v>
+      </c>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:7" ht="14.4">
       <c r="A209" s="1" t="s">
         <v>452</v>
       </c>
@@ -5627,14 +5670,14 @@
         <v>8</v>
       </c>
       <c r="E209" s="5">
-        <v>22000.0</v>
-      </c>
-      <c r="F209" s="6"/>
-      <c r="G209" s="7" t="s">
+        <v>22000</v>
+      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="6" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" ht="14.4">
       <c r="A210" s="1" t="s">
         <v>455</v>
       </c>
@@ -5647,12 +5690,12 @@
       <c r="D210" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E210" s="8">
-        <v>47200.0</v>
-      </c>
-      <c r="F210" s="6"/>
-    </row>
-    <row r="211">
+      <c r="E210" s="7">
+        <v>47200</v>
+      </c>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:7" ht="14.4">
       <c r="A211" s="1" t="s">
         <v>457</v>
       </c>
@@ -5665,12 +5708,12 @@
       <c r="D211" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E211" s="8">
-        <v>5.71E7</v>
-      </c>
-      <c r="F211" s="6"/>
-    </row>
-    <row r="212">
+      <c r="E211" s="7">
+        <v>57100000</v>
+      </c>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:7" ht="14.4">
       <c r="A212" s="1" t="s">
         <v>459</v>
       </c>
@@ -5683,12 +5726,12 @@
       <c r="D212" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E212" s="8">
-        <v>118000.0</v>
-      </c>
-      <c r="F212" s="6"/>
-    </row>
-    <row r="213">
+      <c r="E212" s="7">
+        <v>118000</v>
+      </c>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" ht="14.4">
       <c r="A213" s="1" t="s">
         <v>461</v>
       </c>
@@ -5701,12 +5744,12 @@
       <c r="D213" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E213" s="8">
-        <v>57200.0</v>
-      </c>
-      <c r="F213" s="6"/>
-    </row>
-    <row r="214">
+      <c r="E213" s="7">
+        <v>57200</v>
+      </c>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:7" ht="14.4">
       <c r="A214" s="1" t="s">
         <v>463</v>
       </c>
@@ -5720,14 +5763,14 @@
         <v>8</v>
       </c>
       <c r="E214" s="5">
-        <v>464567.0</v>
-      </c>
-      <c r="F214" s="6"/>
-      <c r="G214" s="7" t="s">
+        <v>464567</v>
+      </c>
+      <c r="F214" s="1"/>
+      <c r="G214" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" ht="14.4">
       <c r="A215" s="1" t="s">
         <v>466</v>
       </c>
@@ -5740,12 +5783,12 @@
       <c r="D215" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="8">
-        <v>7850000.0</v>
-      </c>
-      <c r="F215" s="6"/>
-    </row>
-    <row r="216">
+      <c r="E215" s="7">
+        <v>7850000</v>
+      </c>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" ht="14.4">
       <c r="A216" s="1" t="s">
         <v>468</v>
       </c>
@@ -5758,12 +5801,12 @@
       <c r="D216" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E216" s="8">
-        <v>2.78E7</v>
-      </c>
-      <c r="F216" s="6"/>
-    </row>
-    <row r="217">
+      <c r="E216" s="7">
+        <v>27800000</v>
+      </c>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:7" ht="14.4">
       <c r="A217" s="1" t="s">
         <v>470</v>
       </c>
@@ -5776,12 +5819,12 @@
       <c r="D217" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E217" s="8">
-        <v>7410000.0</v>
-      </c>
-      <c r="F217" s="6"/>
-    </row>
-    <row r="218">
+      <c r="E217" s="7">
+        <v>7410000</v>
+      </c>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" ht="14.4">
       <c r="A218" s="1" t="s">
         <v>472</v>
       </c>
@@ -5794,270 +5837,266 @@
       <c r="D218" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E218" s="8">
-        <v>6390000.0</v>
-      </c>
-      <c r="F218" s="6"/>
-    </row>
-    <row r="220">
-      <c r="D220" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="E220" s="14">
-        <f>SUM(E2:E218)</f>
-        <v>3730935186</v>
-      </c>
+      <c r="E218" s="7">
+        <v>6390000</v>
+      </c>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="220" spans="1:7" ht="15.85" customHeight="1">
+      <c r="D220" s="11"/>
+      <c r="E220" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="G2"/>
-    <hyperlink r:id="rId3" ref="D3"/>
-    <hyperlink r:id="rId4" ref="D4"/>
-    <hyperlink r:id="rId5" ref="D5"/>
-    <hyperlink r:id="rId6" ref="D6"/>
-    <hyperlink r:id="rId7" ref="G6"/>
-    <hyperlink r:id="rId8" ref="D7"/>
-    <hyperlink r:id="rId9" ref="D8"/>
-    <hyperlink r:id="rId10" ref="D9"/>
-    <hyperlink r:id="rId11" ref="D10"/>
-    <hyperlink r:id="rId12" ref="G10"/>
-    <hyperlink r:id="rId13" ref="D11"/>
-    <hyperlink r:id="rId14" ref="G11"/>
-    <hyperlink r:id="rId15" ref="D12"/>
-    <hyperlink r:id="rId16" ref="D13"/>
-    <hyperlink r:id="rId17" ref="D14"/>
-    <hyperlink r:id="rId18" ref="D15"/>
-    <hyperlink r:id="rId19" ref="D16"/>
-    <hyperlink r:id="rId20" ref="D17"/>
-    <hyperlink r:id="rId21" ref="D18"/>
-    <hyperlink r:id="rId22" ref="D19"/>
-    <hyperlink r:id="rId23" ref="D20"/>
-    <hyperlink r:id="rId24" ref="D21"/>
-    <hyperlink r:id="rId25" ref="D22"/>
-    <hyperlink r:id="rId26" ref="D23"/>
-    <hyperlink r:id="rId27" ref="D24"/>
-    <hyperlink r:id="rId28" ref="D25"/>
-    <hyperlink r:id="rId29" ref="D26"/>
-    <hyperlink r:id="rId30" ref="G26"/>
-    <hyperlink r:id="rId31" ref="D27"/>
-    <hyperlink r:id="rId32" ref="D28"/>
-    <hyperlink r:id="rId33" ref="D29"/>
-    <hyperlink r:id="rId34" ref="D30"/>
-    <hyperlink r:id="rId35" ref="D31"/>
-    <hyperlink r:id="rId36" ref="D32"/>
-    <hyperlink r:id="rId37" ref="D33"/>
-    <hyperlink r:id="rId38" ref="D34"/>
-    <hyperlink r:id="rId39" ref="D35"/>
-    <hyperlink r:id="rId40" ref="D36"/>
-    <hyperlink r:id="rId41" ref="D37"/>
-    <hyperlink r:id="rId42" ref="D38"/>
-    <hyperlink r:id="rId43" ref="D39"/>
-    <hyperlink r:id="rId44" ref="D40"/>
-    <hyperlink r:id="rId45" ref="D41"/>
-    <hyperlink r:id="rId46" ref="D42"/>
-    <hyperlink r:id="rId47" ref="D43"/>
-    <hyperlink r:id="rId48" ref="D44"/>
-    <hyperlink r:id="rId49" ref="D45"/>
-    <hyperlink r:id="rId50" ref="D46"/>
-    <hyperlink r:id="rId51" ref="D47"/>
-    <hyperlink r:id="rId52" ref="D48"/>
-    <hyperlink r:id="rId53" ref="G48"/>
-    <hyperlink r:id="rId54" ref="D49"/>
-    <hyperlink r:id="rId55" ref="G49"/>
-    <hyperlink r:id="rId56" ref="D50"/>
-    <hyperlink r:id="rId57" ref="D51"/>
-    <hyperlink r:id="rId58" ref="D52"/>
-    <hyperlink r:id="rId59" ref="D53"/>
-    <hyperlink r:id="rId60" ref="D54"/>
-    <hyperlink r:id="rId61" ref="G54"/>
-    <hyperlink r:id="rId62" ref="D55"/>
-    <hyperlink r:id="rId63" ref="D56"/>
-    <hyperlink r:id="rId64" ref="D57"/>
-    <hyperlink r:id="rId65" ref="D58"/>
-    <hyperlink r:id="rId66" ref="D59"/>
-    <hyperlink r:id="rId67" ref="D60"/>
-    <hyperlink r:id="rId68" ref="D61"/>
-    <hyperlink r:id="rId69" ref="D62"/>
-    <hyperlink r:id="rId70" ref="D63"/>
-    <hyperlink r:id="rId71" ref="D64"/>
-    <hyperlink r:id="rId72" ref="D65"/>
-    <hyperlink r:id="rId73" ref="D66"/>
-    <hyperlink r:id="rId74" ref="D67"/>
-    <hyperlink r:id="rId75" ref="G67"/>
-    <hyperlink r:id="rId76" ref="D68"/>
-    <hyperlink r:id="rId77" ref="G68"/>
-    <hyperlink r:id="rId78" ref="D69"/>
-    <hyperlink r:id="rId79" ref="D70"/>
-    <hyperlink r:id="rId80" ref="D71"/>
-    <hyperlink r:id="rId81" ref="D72"/>
-    <hyperlink r:id="rId82" ref="D73"/>
-    <hyperlink r:id="rId83" ref="G73"/>
-    <hyperlink r:id="rId84" ref="D74"/>
-    <hyperlink r:id="rId85" ref="D75"/>
-    <hyperlink r:id="rId86" ref="D76"/>
-    <hyperlink r:id="rId87" ref="D77"/>
-    <hyperlink r:id="rId88" ref="D78"/>
-    <hyperlink r:id="rId89" ref="D79"/>
-    <hyperlink r:id="rId90" ref="G79"/>
-    <hyperlink r:id="rId91" ref="D80"/>
-    <hyperlink r:id="rId92" ref="G80"/>
-    <hyperlink r:id="rId93" ref="D81"/>
-    <hyperlink r:id="rId94" ref="D82"/>
-    <hyperlink r:id="rId95" ref="D83"/>
-    <hyperlink r:id="rId96" ref="D84"/>
-    <hyperlink r:id="rId97" ref="D85"/>
-    <hyperlink r:id="rId98" ref="D86"/>
-    <hyperlink r:id="rId99" ref="D87"/>
-    <hyperlink r:id="rId100" ref="D88"/>
-    <hyperlink r:id="rId101" ref="D89"/>
-    <hyperlink r:id="rId102" ref="D90"/>
-    <hyperlink r:id="rId103" ref="D91"/>
-    <hyperlink r:id="rId104" ref="D92"/>
-    <hyperlink r:id="rId105" ref="D93"/>
-    <hyperlink r:id="rId106" ref="D94"/>
-    <hyperlink r:id="rId107" ref="D95"/>
-    <hyperlink r:id="rId108" ref="D96"/>
-    <hyperlink r:id="rId109" ref="D97"/>
-    <hyperlink r:id="rId110" ref="D98"/>
-    <hyperlink r:id="rId111" ref="D99"/>
-    <hyperlink r:id="rId112" ref="D100"/>
-    <hyperlink r:id="rId113" ref="D101"/>
-    <hyperlink r:id="rId114" ref="D102"/>
-    <hyperlink r:id="rId115" ref="D103"/>
-    <hyperlink r:id="rId116" ref="D104"/>
-    <hyperlink r:id="rId117" ref="D105"/>
-    <hyperlink r:id="rId118" ref="G105"/>
-    <hyperlink r:id="rId119" ref="D106"/>
-    <hyperlink r:id="rId120" ref="G106"/>
-    <hyperlink r:id="rId121" ref="D107"/>
-    <hyperlink r:id="rId122" ref="D108"/>
-    <hyperlink r:id="rId123" ref="D109"/>
-    <hyperlink r:id="rId124" ref="D110"/>
-    <hyperlink r:id="rId125" ref="G110"/>
-    <hyperlink r:id="rId126" ref="D111"/>
-    <hyperlink r:id="rId127" ref="D112"/>
-    <hyperlink r:id="rId128" ref="D113"/>
-    <hyperlink r:id="rId129" ref="D114"/>
-    <hyperlink r:id="rId130" ref="D115"/>
-    <hyperlink r:id="rId131" ref="D116"/>
-    <hyperlink r:id="rId132" ref="D117"/>
-    <hyperlink r:id="rId133" ref="D118"/>
-    <hyperlink r:id="rId134" ref="D119"/>
-    <hyperlink r:id="rId135" ref="D120"/>
-    <hyperlink r:id="rId136" ref="D121"/>
-    <hyperlink r:id="rId137" ref="D122"/>
-    <hyperlink r:id="rId138" ref="D123"/>
-    <hyperlink r:id="rId139" ref="G123"/>
-    <hyperlink r:id="rId140" ref="D124"/>
-    <hyperlink r:id="rId141" ref="D125"/>
-    <hyperlink r:id="rId142" ref="D126"/>
-    <hyperlink r:id="rId143" ref="D127"/>
-    <hyperlink r:id="rId144" ref="D128"/>
-    <hyperlink r:id="rId145" ref="G128"/>
-    <hyperlink r:id="rId146" ref="D129"/>
-    <hyperlink r:id="rId147" ref="D130"/>
-    <hyperlink r:id="rId148" ref="D131"/>
-    <hyperlink r:id="rId149" ref="D132"/>
-    <hyperlink r:id="rId150" ref="D133"/>
-    <hyperlink r:id="rId151" ref="D134"/>
-    <hyperlink r:id="rId152" ref="D135"/>
-    <hyperlink r:id="rId153" ref="G135"/>
-    <hyperlink r:id="rId154" ref="D136"/>
-    <hyperlink r:id="rId155" ref="D137"/>
-    <hyperlink r:id="rId156" ref="D138"/>
-    <hyperlink r:id="rId157" ref="D139"/>
-    <hyperlink r:id="rId158" ref="D140"/>
-    <hyperlink r:id="rId159" ref="D141"/>
-    <hyperlink r:id="rId160" ref="D142"/>
-    <hyperlink r:id="rId161" ref="D143"/>
-    <hyperlink r:id="rId162" ref="D144"/>
-    <hyperlink r:id="rId163" ref="D145"/>
-    <hyperlink r:id="rId164" ref="D146"/>
-    <hyperlink r:id="rId165" ref="D147"/>
-    <hyperlink r:id="rId166" ref="D148"/>
-    <hyperlink r:id="rId167" ref="D149"/>
-    <hyperlink r:id="rId168" ref="G149"/>
-    <hyperlink r:id="rId169" ref="D150"/>
-    <hyperlink r:id="rId170" ref="D151"/>
-    <hyperlink r:id="rId171" ref="D152"/>
-    <hyperlink r:id="rId172" ref="D153"/>
-    <hyperlink r:id="rId173" ref="D154"/>
-    <hyperlink r:id="rId174" ref="D155"/>
-    <hyperlink r:id="rId175" ref="D156"/>
-    <hyperlink r:id="rId176" ref="G156"/>
-    <hyperlink r:id="rId177" ref="D157"/>
-    <hyperlink r:id="rId178" ref="D158"/>
-    <hyperlink r:id="rId179" ref="D159"/>
-    <hyperlink r:id="rId180" ref="D160"/>
-    <hyperlink r:id="rId181" ref="D161"/>
-    <hyperlink r:id="rId182" ref="D162"/>
-    <hyperlink r:id="rId183" ref="D163"/>
-    <hyperlink r:id="rId184" ref="D164"/>
-    <hyperlink r:id="rId185" ref="D165"/>
-    <hyperlink r:id="rId186" ref="D166"/>
-    <hyperlink r:id="rId187" ref="D167"/>
-    <hyperlink r:id="rId188" ref="D168"/>
-    <hyperlink r:id="rId189" ref="D169"/>
-    <hyperlink r:id="rId190" ref="D170"/>
-    <hyperlink r:id="rId191" ref="G170"/>
-    <hyperlink r:id="rId192" ref="D171"/>
-    <hyperlink r:id="rId193" ref="D172"/>
-    <hyperlink r:id="rId194" ref="D173"/>
-    <hyperlink r:id="rId195" ref="D174"/>
-    <hyperlink r:id="rId196" ref="D175"/>
-    <hyperlink r:id="rId197" ref="D176"/>
-    <hyperlink r:id="rId198" ref="G176"/>
-    <hyperlink r:id="rId199" ref="D177"/>
-    <hyperlink r:id="rId200" ref="D178"/>
-    <hyperlink r:id="rId201" ref="D179"/>
-    <hyperlink r:id="rId202" ref="G179"/>
-    <hyperlink r:id="rId203" ref="D180"/>
-    <hyperlink r:id="rId204" ref="D181"/>
-    <hyperlink r:id="rId205" ref="D182"/>
-    <hyperlink r:id="rId206" ref="D183"/>
-    <hyperlink r:id="rId207" ref="D184"/>
-    <hyperlink r:id="rId208" ref="D185"/>
-    <hyperlink r:id="rId209" ref="D186"/>
-    <hyperlink r:id="rId210" ref="D187"/>
-    <hyperlink r:id="rId211" ref="G187"/>
-    <hyperlink r:id="rId212" ref="D188"/>
-    <hyperlink r:id="rId213" ref="D189"/>
-    <hyperlink r:id="rId214" ref="G189"/>
-    <hyperlink r:id="rId215" ref="D190"/>
-    <hyperlink r:id="rId216" ref="D191"/>
-    <hyperlink r:id="rId217" ref="D192"/>
-    <hyperlink r:id="rId218" ref="D193"/>
-    <hyperlink r:id="rId219" ref="D194"/>
-    <hyperlink r:id="rId220" ref="D195"/>
-    <hyperlink r:id="rId221" ref="D196"/>
-    <hyperlink r:id="rId222" ref="D197"/>
-    <hyperlink r:id="rId223" ref="D198"/>
-    <hyperlink r:id="rId224" ref="D199"/>
-    <hyperlink r:id="rId225" ref="D200"/>
-    <hyperlink r:id="rId226" ref="G200"/>
-    <hyperlink r:id="rId227" ref="D201"/>
-    <hyperlink r:id="rId228" ref="D202"/>
-    <hyperlink r:id="rId229" ref="D203"/>
-    <hyperlink r:id="rId230" ref="G203"/>
-    <hyperlink r:id="rId231" ref="D204"/>
-    <hyperlink r:id="rId232" ref="D205"/>
-    <hyperlink r:id="rId233" ref="D206"/>
-    <hyperlink r:id="rId234" ref="D207"/>
-    <hyperlink r:id="rId235" ref="D208"/>
-    <hyperlink r:id="rId236" ref="D209"/>
-    <hyperlink r:id="rId237" ref="G209"/>
-    <hyperlink r:id="rId238" ref="D210"/>
-    <hyperlink r:id="rId239" ref="D211"/>
-    <hyperlink r:id="rId240" ref="D212"/>
-    <hyperlink r:id="rId241" ref="D213"/>
-    <hyperlink r:id="rId242" ref="D214"/>
-    <hyperlink r:id="rId243" ref="G214"/>
-    <hyperlink r:id="rId244" ref="D215"/>
-    <hyperlink r:id="rId245" ref="D216"/>
-    <hyperlink r:id="rId246" ref="D217"/>
-    <hyperlink r:id="rId247" ref="D218"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D18" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D20" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D21" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D22" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D23" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D24" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D25" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D30" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D31" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D32" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D33" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D34" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D35" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D36" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D37" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D38" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D39" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D40" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D41" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D42" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D43" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D44" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D45" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D46" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D47" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D48" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G48" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D49" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G49" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D50" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D51" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D52" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D53" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D54" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G54" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D55" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D56" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D57" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D59" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D60" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D61" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D62" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D63" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D64" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D65" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D66" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D67" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G67" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D68" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G68" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D69" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D70" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D71" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D72" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D73" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G73" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D74" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D75" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D76" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D77" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D78" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D79" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G79" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D80" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G80" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D81" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D82" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D83" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D84" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D85" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D86" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D87" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D88" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D89" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D90" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D91" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D92" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D93" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D94" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D95" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D96" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D97" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D98" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D99" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D100" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D101" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D102" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D103" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D104" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D105" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="G105" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D106" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G106" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D107" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D108" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D109" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D110" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G110" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D111" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D112" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D113" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D114" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D115" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D116" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D117" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D118" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D119" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D120" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D121" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D122" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D123" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G123" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D124" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D125" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D126" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D127" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D128" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G128" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D129" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D130" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D131" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D132" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D133" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D134" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D135" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G135" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D136" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D137" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D138" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D139" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D140" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D141" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D142" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D143" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D144" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D145" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D146" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D147" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D148" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D149" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="G149" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D150" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D151" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D152" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D153" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D154" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D155" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D156" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="G156" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D157" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D158" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D159" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D160" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D161" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D162" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D163" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D164" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D165" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D166" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D167" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D168" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D169" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D170" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="G170" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D171" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D172" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D173" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D174" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D175" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D176" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="G176" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="D177" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="D178" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="D179" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="G179" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="D180" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="D181" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D182" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="D183" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D184" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="D185" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="D186" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="D187" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="G187" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="D188" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="D189" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="G189" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="D190" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="D191" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="D192" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="D193" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="D194" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="D195" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D196" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="D197" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="D198" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="D199" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="D200" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="G200" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="D201" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D202" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="D203" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="G203" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D204" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="D205" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="D206" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D207" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="D208" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="D209" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="G209" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="D210" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="D211" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="D212" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="D213" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="D214" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="G214" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="D215" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="D216" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="D217" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="D218" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
   </hyperlinks>
-  <drawing r:id="rId248"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId248"/>
 </worksheet>
 </file>